--- a/Data/Detour Sampling.xlsx
+++ b/Data/Detour Sampling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericbonk/Desktop/School/Detour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericbonk/Desktop/School/Detour 2.0/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBAD6F3-0684-1B4F-9891-C6D723D77B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4CF812-3AD7-7849-B22C-CBC70C97799C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="7100" windowWidth="21800" windowHeight="16320" xr2:uid="{49552C61-DE01-DD43-AC3D-C4870A0F4E5A}"/>
+    <workbookView xWindow="8160" yWindow="500" windowWidth="21800" windowHeight="16320" xr2:uid="{49552C61-DE01-DD43-AC3D-C4870A0F4E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -274,9 +274,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -420,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56328DA-75D8-DC4D-9B53-F25A9A2B7655}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -714,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -722,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -730,7 +730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -746,7 +746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -754,7 +754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -762,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -770,7 +770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -778,7 +778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,19 +786,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="F27">
-        <f>COUNTA(A2:A28)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -814,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -822,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -830,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>

--- a/Data/Detour Sampling.xlsx
+++ b/Data/Detour Sampling.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericbonk/Desktop/School/Detour 2.0/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4CF812-3AD7-7849-B22C-CBC70C97799C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4B23BF-A1EB-624C-B927-B359928ECEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="500" windowWidth="21800" windowHeight="16320" xr2:uid="{49552C61-DE01-DD43-AC3D-C4870A0F4E5A}"/>
+    <workbookView xWindow="8160" yWindow="760" windowWidth="21800" windowHeight="16320" xr2:uid="{49552C61-DE01-DD43-AC3D-C4870A0F4E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
   <si>
     <t>08-07-23 - SunC-REF</t>
   </si>
@@ -85,75 +83,7 @@
     <t>13-07-23 - HC-REF</t>
   </si>
   <si>
-    <t>GN, EF, HN</t>
-  </si>
-  <si>
-    <t>HN GN MT</t>
-  </si>
-  <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>08-07-23 - SunC-EXP     3</t>
-  </si>
-  <si>
-    <t>08-07-23 - SunC-REF     3</t>
-  </si>
-  <si>
-    <t>09-07-23 - SunC-REF     3</t>
-  </si>
-  <si>
-    <t>10-07-23 - KC-EXP       2</t>
-  </si>
-  <si>
-    <t>11-07-23 - KC-REF       3</t>
-  </si>
-  <si>
-    <t>12-07-23 - HC-REF       3</t>
-  </si>
-  <si>
-    <t>12-07-23 - RJ-POND      2</t>
-  </si>
-  <si>
-    <t>12-07-23 - SunC-FF      2</t>
-  </si>
-  <si>
-    <t>13-07-23 - HC-REF       2</t>
-  </si>
-  <si>
-    <t>EF, MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN, HN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EF, HN </t>
-  </si>
-  <si>
-    <t>GN, MT</t>
-  </si>
-  <si>
-    <t>Combo</t>
-  </si>
-  <si>
-    <t>Samples that have it</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>EF, GN</t>
-  </si>
-  <si>
-    <t>09-07-23 - SunC-EXP     4</t>
-  </si>
-  <si>
-    <t>GN
-EF
-HN</t>
   </si>
   <si>
     <t>12S</t>
@@ -169,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,54 +107,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="9" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,23 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,21 +448,21 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -603,7 +478,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -619,7 +494,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -627,7 +502,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -635,7 +510,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -651,7 +526,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
@@ -659,7 +534,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -667,7 +542,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -675,7 +550,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
@@ -683,7 +558,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -691,7 +566,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
@@ -699,7 +574,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
@@ -707,7 +582,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -731,7 +606,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
@@ -739,7 +614,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
@@ -755,7 +630,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
@@ -763,7 +638,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
@@ -779,7 +654,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B26" t="s">
@@ -795,7 +670,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B28" t="s">
@@ -804,7 +679,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -812,7 +687,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -820,7 +695,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -828,7 +703,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -836,7 +711,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -844,7 +719,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -852,7 +727,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -860,7 +735,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -868,7 +743,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -876,7 +751,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -884,7 +759,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -892,7 +767,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -900,7 +775,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -908,7 +783,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -916,7 +791,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -924,7 +799,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -932,7 +807,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -940,7 +815,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -948,7 +823,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -956,7 +831,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -965,482 +840,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6337EB33-BE86-C441-B430-69DB1F98874C}">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J14">
-    <sortCondition ref="J2:J14"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3931568-3419-9643-BD34-48A57982228C}">
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D21:E21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>